--- a/app/src/main/res/raw/emotion.xlsx
+++ b/app/src/main/res/raw/emotion.xlsx
@@ -434,7 +434,7 @@
   <dimension ref="A1:B164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
